--- a/4.2 International Logistics Association Memberships - Data for Cleaning.xlsx
+++ b/4.2 International Logistics Association Memberships - Data for Cleaning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrsir\Downloads\Google-Data-Analytics-Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474DABBC-DA92-472F-9410-49C8A92D1A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CD7AF4-0F79-4D81-AEE5-51F0DA97ADBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="Association ABC memberships" sheetId="1" r:id="rId1"/>
     <sheet name="Association ABC memberships (2)" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="431">
   <si>
     <t>Member ID</t>
   </si>
@@ -1305,6 +1318,15 @@
   </si>
   <si>
     <t>Certification4</t>
+  </si>
+  <si>
+    <t>Member Dues &lt; 100:</t>
+  </si>
+  <si>
+    <t>Member Dues &gt; 500:</t>
+  </si>
+  <si>
+    <t>ID length</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1382,9 +1404,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1392,7 +1411,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1448,41 +1507,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1513,9 +1537,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Association ABC memberships-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="11"/>
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1550,9 +1574,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCA1F53A-9FCC-45BB-9546-4D2B3E67F10D}" name="Table_13" displayName="Table_13" ref="A1:O75">
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCA1F53A-9FCC-45BB-9546-4D2B3E67F10D}" name="Table_13" displayName="Table_13" ref="A1:P71">
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{DB20E0E8-F742-4A81-ABF5-F7049FF11216}" name="Member ID"/>
+    <tableColumn id="16" xr3:uid="{117B875B-A0CF-449A-B6E3-6841281D9B9D}" name="ID length" dataDxfId="1">
+      <calculatedColumnFormula>LEN(Table_13[[#This Row],[Member ID]])</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="2" xr3:uid="{C6DBA407-1871-4A49-84B3-4D8974A9A9FE}" name="Last name"/>
     <tableColumn id="3" xr3:uid="{165905E5-EE37-401F-90FD-9E3C5218614D}" name="First name"/>
     <tableColumn id="4" xr3:uid="{EF32E287-13EA-423D-8962-7EFC6969B515}" name="Address 1"/>
@@ -1561,12 +1588,12 @@
     <tableColumn id="7" xr3:uid="{00E07112-83B7-446B-9F05-C0DEAE82B20F}" name="Address 4"/>
     <tableColumn id="8" xr3:uid="{BD421667-1BDC-4E0A-AA57-F7E9AAB4C6A8}" name="Address 5"/>
     <tableColumn id="9" xr3:uid="{463E8FAB-DE91-4B1E-904D-45C9F6CF9A79}" name="Dues amount"/>
-    <tableColumn id="10" xr3:uid="{7EB9109F-B06B-4430-8EEE-F13ADB7F48B0}" name="Membership valid through" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{7EB9109F-B06B-4430-8EEE-F13ADB7F48B0}" name="Membership valid through" dataDxfId="7"/>
     <tableColumn id="11" xr3:uid="{E08DCFA4-782B-43AE-B275-F88DD6C7AB9D}" name="Member type"/>
     <tableColumn id="12" xr3:uid="{30524874-C0EE-4414-B88B-204ECA69023E}" name="Certification"/>
-    <tableColumn id="13" xr3:uid="{B2E2695D-2A69-4E01-ACEA-BCEB75441C7F}" name="Certification2" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{9EFD80D2-DD12-4729-B370-07D6DB9341BB}" name="Certification3" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{0C570101-4B28-41BB-8FE5-CFA217655D79}" name="Certification4" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{B2E2695D-2A69-4E01-ACEA-BCEB75441C7F}" name="Certification2" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{9EFD80D2-DD12-4729-B370-07D6DB9341BB}" name="Certification3" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{0C570101-4B28-41BB-8FE5-CFA217655D79}" name="Certification4" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4737,8 +4764,8 @@
       <c r="P75" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:E72 G1:G72 I1:L67">
-    <cfRule type="containsBlanks" dxfId="5" priority="3">
+  <conditionalFormatting sqref="I1:L67 A1:E72 G1:G72">
+    <cfRule type="containsBlanks" dxfId="3" priority="3">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4754,2804 +4781,3097 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="7" customWidth="1"/>
-    <col min="11" max="16" width="21.85546875" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="7" customWidth="1"/>
+    <col min="12" max="17" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100011</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="2">
-        <v>200</v>
-      </c>
-      <c r="J2" s="8">
+      <c r="I2" s="1"/>
+      <c r="J2" s="2">
+        <v>200</v>
+      </c>
+      <c r="K2" s="8">
         <v>44280</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>100012</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="2">
+      <c r="I3" s="1"/>
+      <c r="J3" s="2">
         <v>500</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="8">
         <v>45211</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>100013</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>4812</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>100</v>
       </c>
-      <c r="J4" s="8">
+      <c r="K4" s="8">
         <v>44937</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>100014</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="2">
+      <c r="I5" s="1"/>
+      <c r="J5" s="2">
         <v>500</v>
       </c>
-      <c r="J5" s="9">
+      <c r="K5" s="9">
         <v>44243</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>100015</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="2">
-        <v>200</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="I6" s="1"/>
+      <c r="J6" s="2">
+        <v>200</v>
+      </c>
+      <c r="K6" s="8">
         <v>45136</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>100016</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>100</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <v>39431</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>100017</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="2">
-        <v>200</v>
-      </c>
-      <c r="J8" s="8">
+      <c r="I8" s="1"/>
+      <c r="J8" s="2">
+        <v>200</v>
+      </c>
+      <c r="K8" s="8">
         <v>44286</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>100018</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="2">
-        <v>200</v>
-      </c>
-      <c r="J9" s="8">
+      <c r="I9" s="1"/>
+      <c r="J9" s="2">
+        <v>200</v>
+      </c>
+      <c r="K9" s="8">
         <v>44429</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>100019</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="2">
+      <c r="I10" s="1"/>
+      <c r="J10" s="2">
         <v>500</v>
       </c>
-      <c r="J10" s="8">
+      <c r="K10" s="8">
         <v>44285</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>100020</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="2">
-        <v>200</v>
-      </c>
-      <c r="J11" s="8">
+      <c r="J11" s="2">
+        <v>200</v>
+      </c>
+      <c r="K11" s="8">
         <v>44421</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>100021</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>1214</v>
       </c>
-      <c r="I12" s="2">
-        <v>200</v>
-      </c>
-      <c r="J12" s="8">
+      <c r="J12" s="2">
+        <v>200</v>
+      </c>
+      <c r="K12" s="8">
         <v>44714</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>100022</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="2">
+      <c r="I13" s="1"/>
+      <c r="J13" s="2">
         <v>100</v>
       </c>
-      <c r="J13" s="8">
+      <c r="K13" s="8">
         <v>44529</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>100023</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="2">
+      <c r="I14" s="1"/>
+      <c r="J14" s="2">
         <v>100</v>
       </c>
-      <c r="J14" s="8">
+      <c r="K14" s="8">
         <v>44377</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>100024</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="2">
+      <c r="I15" s="1"/>
+      <c r="J15" s="2">
         <v>100</v>
       </c>
-      <c r="J15" s="8">
+      <c r="K15" s="8">
         <v>45064</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>100025</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="2">
-        <v>200</v>
-      </c>
-      <c r="J16" s="8">
+      <c r="I16" s="1"/>
+      <c r="J16" s="2">
+        <v>200</v>
+      </c>
+      <c r="K16" s="8">
         <v>44436</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>100026</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I17" s="2">
-        <v>200</v>
-      </c>
-      <c r="J17" s="8">
+      <c r="J17" s="2">
+        <v>200</v>
+      </c>
+      <c r="K17" s="8">
         <v>44374</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>100027</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>31002</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>500</v>
       </c>
-      <c r="J18" s="8">
+      <c r="K18" s="8">
         <v>44755</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>100028</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I19" s="2">
-        <v>200</v>
-      </c>
-      <c r="J19" s="8">
+      <c r="J19" s="2">
+        <v>200</v>
+      </c>
+      <c r="K19" s="8">
         <v>44281</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>100029</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="2">
-        <v>200</v>
-      </c>
-      <c r="J20" s="8">
+      <c r="I20" s="1"/>
+      <c r="J20" s="2">
+        <v>200</v>
+      </c>
+      <c r="K20" s="8">
         <v>44315</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>100030</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>1061</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <v>100</v>
       </c>
-      <c r="J21" s="8">
+      <c r="K21" s="8">
         <v>44375</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>100031</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="2">
+      <c r="I22" s="1"/>
+      <c r="J22" s="2">
         <v>100</v>
       </c>
-      <c r="J22" s="8">
+      <c r="K22" s="8">
         <v>44316</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>100032</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <v>100</v>
       </c>
-      <c r="J23" s="8">
+      <c r="K23" s="8">
         <v>44409</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>100033</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>2000</v>
       </c>
-      <c r="I24" s="2">
-        <v>200</v>
-      </c>
-      <c r="J24" s="8">
+      <c r="J24" s="2">
+        <v>200</v>
+      </c>
+      <c r="K24" s="8">
         <v>44811</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>100034</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I25" s="2">
-        <v>200</v>
-      </c>
-      <c r="J25" s="8">
+      <c r="J25" s="2">
+        <v>200</v>
+      </c>
+      <c r="K25" s="8">
         <v>44416</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>100035</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I26" s="2">
-        <v>200</v>
-      </c>
-      <c r="J26" s="8">
+      <c r="J26" s="2">
+        <v>200</v>
+      </c>
+      <c r="K26" s="8">
         <v>44928</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>100036</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="2">
+      <c r="I27" s="1"/>
+      <c r="J27" s="2">
         <v>100</v>
       </c>
-      <c r="J27" s="8">
+      <c r="K27" s="8">
         <v>44352</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>100037</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="I28" s="2">
-        <v>200</v>
-      </c>
-      <c r="J28" s="8">
+      <c r="J28" s="2">
+        <v>200</v>
+      </c>
+      <c r="K28" s="8">
         <v>43900</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>100038</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I29" s="2">
-        <v>200</v>
-      </c>
-      <c r="J29" s="8">
+      <c r="J29" s="2">
+        <v>200</v>
+      </c>
+      <c r="K29" s="8">
         <v>44382</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>100039</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>560008</v>
       </c>
-      <c r="I30" s="2">
-        <v>200</v>
-      </c>
-      <c r="J30" s="8">
+      <c r="J30" s="2">
+        <v>200</v>
+      </c>
+      <c r="K30" s="8">
         <v>44641</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>100040</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="2">
-        <v>200</v>
-      </c>
-      <c r="J31" s="8">
+      <c r="I31" s="1"/>
+      <c r="J31" s="2">
+        <v>200</v>
+      </c>
+      <c r="K31" s="8">
         <v>44416</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>100041</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>200</v>
+      <c r="B32" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="2">
+      <c r="I32" s="1"/>
+      <c r="J32" s="2">
         <v>100</v>
       </c>
-      <c r="J32" s="8">
+      <c r="K32" s="8">
         <v>44375</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>100042</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="2">
-        <v>200</v>
-      </c>
-      <c r="J33" s="8">
+      <c r="I33" s="1"/>
+      <c r="J33" s="2">
+        <v>200</v>
+      </c>
+      <c r="K33" s="8">
         <v>44281</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="M33" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>100043</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I34" s="2">
-        <v>200</v>
-      </c>
-      <c r="J34" s="8">
+      <c r="J34" s="2">
+        <v>200</v>
+      </c>
+      <c r="K34" s="8">
         <v>44543</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>100044</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="2">
-        <v>200</v>
-      </c>
-      <c r="J35" s="8">
+      <c r="I35" s="1"/>
+      <c r="J35" s="2">
+        <v>200</v>
+      </c>
+      <c r="K35" s="8">
         <v>44028</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="4"/>
+      <c r="M35" s="1"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>100045</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>10120</v>
       </c>
-      <c r="I36" s="2">
-        <v>200</v>
-      </c>
-      <c r="J36" s="8">
+      <c r="J36" s="2">
+        <v>200</v>
+      </c>
+      <c r="K36" s="8">
         <v>44257</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>100046</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I37" s="2">
-        <v>200</v>
-      </c>
-      <c r="J37" s="8">
+      <c r="J37" s="2">
+        <v>200</v>
+      </c>
+      <c r="K37" s="8">
         <v>44413</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>100047</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="2">
-        <v>200</v>
-      </c>
-      <c r="J38" s="8">
+      <c r="I38" s="1"/>
+      <c r="J38" s="2">
+        <v>200</v>
+      </c>
+      <c r="K38" s="8">
         <v>44362</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>100048</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>3100</v>
       </c>
-      <c r="I39" s="2">
-        <v>200</v>
-      </c>
-      <c r="J39" s="8">
+      <c r="J39" s="2">
+        <v>200</v>
+      </c>
+      <c r="K39" s="8">
         <v>44455</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>100049</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="2">
+      <c r="I40" s="1"/>
+      <c r="J40" s="2">
         <v>100</v>
       </c>
-      <c r="J40" s="8">
+      <c r="K40" s="8">
         <v>44248</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>100050</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="I41" s="2">
+      <c r="J41" s="2">
         <v>100</v>
       </c>
-      <c r="J41" s="8">
+      <c r="K41" s="8">
         <v>44522</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>100051</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="I42" s="2">
-        <v>200</v>
-      </c>
-      <c r="J42" s="8">
+      <c r="J42" s="2">
+        <v>200</v>
+      </c>
+      <c r="K42" s="8">
         <v>45118</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>100053</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="1"/>
+      <c r="H43" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J43" s="8">
+      <c r="I43" s="1"/>
+      <c r="J43" s="2">
+        <v>100</v>
+      </c>
+      <c r="K43" s="8">
         <v>44485</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>100054</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="1"/>
+      <c r="H44" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H44" s="1">
+      <c r="I44" s="1">
         <v>98633</v>
       </c>
-      <c r="I44" s="2">
+      <c r="J44" s="2">
         <v>500</v>
       </c>
-      <c r="J44" s="8">
+      <c r="K44" s="8">
         <v>44485</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>100055</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="1"/>
+      <c r="H45" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H45" s="1">
+      <c r="I45" s="1">
         <v>98633</v>
       </c>
-      <c r="I45" s="2">
+      <c r="J45" s="2">
         <v>500</v>
       </c>
-      <c r="J45" s="8">
+      <c r="K45" s="8">
         <v>44492</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>100056</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="2">
-        <v>200</v>
-      </c>
-      <c r="J46" s="8">
+      <c r="I46" s="1"/>
+      <c r="J46" s="2">
+        <v>200</v>
+      </c>
+      <c r="K46" s="8">
         <v>44468</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>100057</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="I47" s="2">
-        <v>200</v>
-      </c>
-      <c r="J47" s="8">
+      <c r="J47" s="2">
+        <v>200</v>
+      </c>
+      <c r="K47" s="8">
         <v>45146</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>100058</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I48" s="2">
+      <c r="J48" s="2">
         <v>500</v>
       </c>
-      <c r="J48" s="8">
+      <c r="K48" s="8">
         <v>44461</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="M48" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>100059</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I49" s="2">
-        <v>200</v>
-      </c>
-      <c r="J49" s="8">
+      <c r="J49" s="2">
+        <v>200</v>
+      </c>
+      <c r="K49" s="8">
         <v>44634</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>100060</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="1"/>
+      <c r="H50" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H50" s="1"/>
-      <c r="I50" s="2">
-        <v>200</v>
-      </c>
-      <c r="J50" s="8">
+      <c r="I50" s="1"/>
+      <c r="J50" s="2">
+        <v>200</v>
+      </c>
+      <c r="K50" s="8">
         <v>44207</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>100061</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="1"/>
+      <c r="H51" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="2">
+      <c r="I51" s="1"/>
+      <c r="J51" s="2">
         <v>500</v>
       </c>
-      <c r="J51" s="8">
+      <c r="K51" s="8">
         <v>44557</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="M51" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="N51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>100063</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="I52" s="2">
-        <v>200</v>
-      </c>
-      <c r="J52" s="8">
+      <c r="J52" s="2">
+        <v>200</v>
+      </c>
+      <c r="K52" s="8">
         <v>44505</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>100064</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="I53" s="2">
-        <v>200</v>
-      </c>
-      <c r="J53" s="8">
+      <c r="J53" s="2">
+        <v>200</v>
+      </c>
+      <c r="K53" s="8">
         <v>44511</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="L53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>100065</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="I54" s="2">
-        <v>-200</v>
-      </c>
-      <c r="J54" s="8">
+      <c r="J54" s="2">
+        <v>200</v>
+      </c>
+      <c r="K54" s="8">
         <v>44457</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="L54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q54" s="1"/>
+    </row>
+    <row r="55" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>100066</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="1"/>
+      <c r="H55" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I55" s="2">
-        <v>200</v>
-      </c>
-      <c r="J55" s="8">
+      <c r="J55" s="2">
+        <v>200</v>
+      </c>
+      <c r="K55" s="8">
         <v>44520</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="L55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
-    </row>
-    <row r="56" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q55" s="1"/>
+    </row>
+    <row r="56" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>100067</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="I56" s="2">
-        <v>200</v>
-      </c>
-      <c r="J56" s="8">
+      <c r="J56" s="2">
+        <v>200</v>
+      </c>
+      <c r="K56" s="8">
         <v>44408</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
-    </row>
-    <row r="57" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q56" s="1"/>
+    </row>
+    <row r="57" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>100068</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="I57" s="2">
+      <c r="J57" s="2">
         <v>500</v>
       </c>
-      <c r="J57" s="8">
+      <c r="K57" s="8">
         <v>44347</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="L57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="M57" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="N57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-    </row>
-    <row r="58" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q57" s="1"/>
+    </row>
+    <row r="58" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>100069</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="I58" s="2">
+      <c r="J58" s="2">
         <v>500</v>
       </c>
-      <c r="J58" s="8">
+      <c r="K58" s="8">
         <v>44531</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="L58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
-    </row>
-    <row r="59" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q58" s="1"/>
+    </row>
+    <row r="59" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>100070</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="I59" s="2">
-        <v>200</v>
-      </c>
-      <c r="J59" s="8">
+      <c r="J59" s="2">
+        <v>200</v>
+      </c>
+      <c r="K59" s="8">
         <v>44268</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-    </row>
-    <row r="60" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q59" s="1"/>
+    </row>
+    <row r="60" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>100071</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="1"/>
+      <c r="H60" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H60" s="1"/>
-      <c r="I60" s="2">
+      <c r="I60" s="1"/>
+      <c r="J60" s="2">
         <v>100</v>
       </c>
-      <c r="J60" s="8">
+      <c r="K60" s="8">
         <v>44268</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="L60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
-    </row>
-    <row r="61" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q60" s="1"/>
+    </row>
+    <row r="61" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>100072</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="4"/>
+      <c r="F61" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="1"/>
+      <c r="H61" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H61" s="1"/>
-      <c r="I61" s="2">
+      <c r="I61" s="1"/>
+      <c r="J61" s="2">
         <v>100</v>
       </c>
-      <c r="J61" s="8">
+      <c r="K61" s="8">
         <v>44417</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="L61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
-    </row>
-    <row r="62" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="62" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>100073</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1" t="s">
+      <c r="G62" s="1"/>
+      <c r="H62" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H62" s="1"/>
-      <c r="I62" s="2">
+      <c r="I62" s="1"/>
+      <c r="J62" s="2">
         <v>100</v>
       </c>
-      <c r="J62" s="8">
+      <c r="K62" s="8">
         <v>44326</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="L62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="M62" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-    </row>
-    <row r="63" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q62" s="1"/>
+    </row>
+    <row r="63" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>100074</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I63" s="2">
-        <v>200</v>
-      </c>
-      <c r="J63" s="8">
+      <c r="J63" s="2">
+        <v>200</v>
+      </c>
+      <c r="K63" s="8">
         <v>39415</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="L63" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
-    </row>
-    <row r="64" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q63" s="1"/>
+    </row>
+    <row r="64" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>100075</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="1"/>
+      <c r="H64" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H64" s="1"/>
-      <c r="I64" s="2">
+      <c r="I64" s="1"/>
+      <c r="J64" s="2">
         <v>100</v>
       </c>
-      <c r="J64" s="8">
+      <c r="K64" s="8">
         <v>44205</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="L64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
-    </row>
-    <row r="65" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q64" s="1"/>
+    </row>
+    <row r="65" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>100076</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I65" s="2">
-        <v>200</v>
-      </c>
-      <c r="J65" s="8">
+      <c r="J65" s="2">
+        <v>200</v>
+      </c>
+      <c r="K65" s="8">
         <v>44214</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="L65" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
-    </row>
-    <row r="66" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>100077</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H66" s="1"/>
-      <c r="I66" s="2">
-        <v>200</v>
-      </c>
-      <c r="J66" s="8">
+      <c r="I66" s="1"/>
+      <c r="J66" s="2">
+        <v>200</v>
+      </c>
+      <c r="K66" s="8">
         <v>44325</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="L66" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="N66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
-    </row>
-    <row r="67" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>100078</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="1"/>
+      <c r="H67" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H67" s="1"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="8">
+      <c r="I67" s="1"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="8">
         <v>44269</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="L67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
-    </row>
-    <row r="68" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q67" s="1"/>
+    </row>
+    <row r="68" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>100079</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
+      <c r="G68" s="1"/>
+      <c r="H68" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H68" s="1"/>
-      <c r="I68" s="2">
+      <c r="I68" s="1"/>
+      <c r="J68" s="2">
         <v>100</v>
       </c>
-      <c r="J68" s="8">
+      <c r="K68" s="8">
         <v>44349</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="L68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="M68" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
-    </row>
-    <row r="69" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q68" s="1"/>
+    </row>
+    <row r="69" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>100080</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="I69" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="I69" s="2">
-        <v>200</v>
-      </c>
-      <c r="J69" s="8">
+      <c r="J69" s="2">
+        <v>200</v>
+      </c>
+      <c r="K69" s="8">
         <v>44244</v>
       </c>
-      <c r="K69" s="1" t="s">
+      <c r="L69" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
-    </row>
-    <row r="70" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q69" s="1"/>
+    </row>
+    <row r="70" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>100081</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="I70" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="I70" s="2">
+      <c r="J70" s="2">
         <v>500</v>
       </c>
-      <c r="J70" s="8">
+      <c r="K70" s="8">
         <v>44492</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="L70" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="M70" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="N70" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="N70" s="1" t="s">
+      <c r="O70" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O70" s="1"/>
       <c r="P70" s="1"/>
-    </row>
-    <row r="71" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q70" s="1"/>
+    </row>
+    <row r="71" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>100082</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="1">
+        <f>LEN(Table_13[[#This Row],[Member ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1" t="s">
+      <c r="G71" s="1"/>
+      <c r="H71" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H71" s="1"/>
-      <c r="I71" s="2">
-        <v>200</v>
-      </c>
-      <c r="J71" s="8">
+      <c r="I71" s="1"/>
+      <c r="J71" s="2">
+        <v>200</v>
+      </c>
+      <c r="K71" s="8">
         <v>44492</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="L71" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
-    </row>
-    <row r="72" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="J72" s="10"/>
+      <c r="Q71" s="1"/>
+    </row>
+    <row r="72" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="K72" s="6"/>
+      <c r="L72" s="1"/>
       <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-    </row>
-    <row r="73" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -7559,89 +7879,36 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="1"/>
+      <c r="I73" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J73" s="1">
+        <f>COUNTIF(Table_13[Dues amount], "&lt;100")</f>
+        <v>0</v>
+      </c>
+      <c r="K73" s="6"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-    </row>
-    <row r="74" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-    </row>
-    <row r="75" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-    </row>
-    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="J76" s="6"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-    </row>
-    <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="J77" s="6"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
+    </row>
+    <row r="74" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I74" t="s">
+        <v>429</v>
+      </c>
+      <c r="J74">
+        <f>COUNTIF(Table_13[Dues amount], "&gt;500")</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A1:E75 G1:G75 I1:K67">
-    <cfRule type="containsBlanks" dxfId="4" priority="2">
+  <conditionalFormatting sqref="J1:L67 A1:F71 H1:H71">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B71">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
